--- a/story/Activity Story 活动剧情/act17d0 Operation Originium Dust 源石尘行动/level_act17d0_01_beg.xlsx
+++ b/story/Activity Story 活动剧情/act17d0 Operation Originium Dust 源石尘行动/level_act17d0_01_beg.xlsx
@@ -1376,7 +1376,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="슈바르츠"]맞습니다. 하지만 그로 인해 매우 큰 위험을 감수하고 있는 것도 사실입니다. 현재 정제된 오리지늄 주괴가 가득 담긴 주머니를 가지고 황무지를 걸어서 행군하고 있잖습니까.
+    <t xml:space="preserve">[name="슈바르츠"]맞습니다. 하지만 그로 인해 매우 큰 위험을 감수하고 있는 것도 사실입니다. 현재 정제된 오리지늄각뿔이 가득 담긴 주머니를 가지고 황무지를 걸어서 행군하고 있잖습니까.
 </t>
   </si>
   <si>
